--- a/figures/compGraphics.xlsx
+++ b/figures/compGraphics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\GitHub\data-mining-project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB24E787-84FE-4115-B697-8BD3D37D41DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCAF75-DFC0-49A3-865E-4710BA56D3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83A52056-CCF6-4FA2-943A-25E04CE26200}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{83A52056-CCF6-4FA2-943A-25E04CE26200}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>old</t>
   </si>
@@ -121,6 +121,33 @@
   <si>
     <t>set21</t>
   </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>based on actual.json and standard.json</t>
+  </si>
+  <si>
+    <t>len(set) = 1000</t>
+  </si>
+  <si>
+    <t>we create different set of newActual and recStandard based on the max-len of frequent itemsets, in order to chose then the most relevant</t>
+  </si>
+  <si>
+    <t>0 doesn't work</t>
+  </si>
+  <si>
+    <t>max-len &gt; 4 doesn't work either (too many data)</t>
+  </si>
 </sst>
 </file>
 
@@ -185,12 +212,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3678,15 +3711,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5109588E-9E58-4FD5-908C-B91A77B9C322}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3723,8 +3756,23 @@
       <c r="L1" t="s">
         <v>1</v>
       </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -3752,8 +3800,14 @@
       <c r="L2">
         <v>19</v>
       </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3781,8 +3835,35 @@
       <c r="L3">
         <v>26</v>
       </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>19.814</v>
+      </c>
+      <c r="P3">
+        <v>7.1840000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>34.146999999999998</v>
+      </c>
+      <c r="R3">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>302</v>
+      </c>
+      <c r="V3">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3810,8 +3891,35 @@
       <c r="L4">
         <v>22</v>
       </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>19.814</v>
+      </c>
+      <c r="P4">
+        <v>8.09</v>
+      </c>
+      <c r="Q4">
+        <v>34.146999999999998</v>
+      </c>
+      <c r="R4">
+        <v>3.194</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>302</v>
+      </c>
+      <c r="V4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3839,8 +3947,35 @@
       <c r="L5">
         <v>22</v>
       </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>19.814</v>
+      </c>
+      <c r="P5">
+        <v>7.5270000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>34.146999999999998</v>
+      </c>
+      <c r="R5">
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>302</v>
+      </c>
+      <c r="V5">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3869,7 +4004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3898,7 +4033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3926,8 +4061,15 @@
       <c r="L8">
         <v>27</v>
       </c>
+      <c r="N8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3955,8 +4097,15 @@
       <c r="L9">
         <v>27</v>
       </c>
+      <c r="N9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3984,8 +4133,15 @@
       <c r="L10">
         <v>24</v>
       </c>
+      <c r="N10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -4013,8 +4169,13 @@
       <c r="L11">
         <v>24</v>
       </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -4042,8 +4203,13 @@
       <c r="L12">
         <v>24</v>
       </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -4071,8 +4237,13 @@
       <c r="L13">
         <v>23</v>
       </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4100,8 +4271,15 @@
       <c r="L14">
         <v>23</v>
       </c>
+      <c r="N14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -4129,8 +4307,15 @@
       <c r="L15">
         <v>23</v>
       </c>
+      <c r="N15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -4387,6 +4572,13 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="N10:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
